--- a/Assets/Scripts/Editor/Excel/Test.xlsx
+++ b/Assets/Scripts/Editor/Excel/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\Hello\taptap\Assets\Scripts\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DCFFAD-8E38-4188-980D-7A7B1400F2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBB1352-66EE-42F0-8BB6-FD2E4DA82922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="4845" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemInfo" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,54 @@
   </si>
   <si>
     <t>itemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大使用数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\AddressableAssets\GameRes\Arts\Textures\Items\山梅.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\AddressableAssets\GameRes\Arts\Textures\Items\一捆蕨菜.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\AddressableAssets\GameRes\Arts\Textures\Items\人参.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\AddressableAssets\GameRes\Arts\Textures\Items\山梅汤.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\AddressableAssets\GameRes\Arts\Textures\Items\蕨菜汤.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets\AddressableAssets\GameRes\Arts\Textures\Items\人参汤.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -168,13 +216,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF1F2329"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -457,15 +517,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -475,8 +535,14 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -486,8 +552,14 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -497,8 +569,14 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -508,8 +586,14 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -519,8 +603,14 @@
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -530,8 +620,14 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -541,8 +637,14 @@
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -552,8 +654,14 @@
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -562,6 +670,12 @@
       </c>
       <c r="C9" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
